--- a/mobi_client/mobi_client/mobi_config/excel/012_约会表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/012_约会表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD6D14F-C67F-4E1E-AAA9-F51207A364EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340"/>
+    <workbookView xWindow="-27240" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DatingGift|角色礼物表" sheetId="4" r:id="rId1"/>
@@ -12,12 +18,25 @@
     <sheet name="PreDating|约会准备avg" sheetId="7" r:id="rId3"/>
     <sheet name="DatingEvent|角色地点事件表" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="137">
   <si>
     <t>角色id</t>
   </si>
@@ -197,12 +216,6 @@
   </si>
   <si>
     <t>communicationAvg</t>
-  </si>
-  <si>
-    <t>LimitState</t>
-  </si>
-  <si>
-    <t>ID:DatingGift</t>
   </si>
   <si>
     <t>Park</t>
@@ -439,14 +452,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +466,7 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -466,159 +474,32 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,204 +520,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399395733512375"/>
+        <fgColor theme="3" tint="0.39936521500289923"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -870,258 +565,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1131,26 +584,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1161,26 +605,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1192,62 +627,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1534,19 +925,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.375" style="1" customWidth="1"/>
@@ -1560,7 +952,7 @@
     <col min="12" max="12" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1598,7 +990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1636,7 +1028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
@@ -1674,7 +1066,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>11</v>
       </c>
@@ -1712,7 +1104,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>12</v>
       </c>
@@ -1750,7 +1142,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>13</v>
       </c>
@@ -1789,28 +1181,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="6" max="6" width="49.375" customWidth="1"/>
     <col min="7" max="7" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1829,11 +1221,11 @@
       <c r="F1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1852,11 +1244,11 @@
       <c r="F2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
@@ -1875,249 +1267,236 @@
       <c r="F3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="D4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>11</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>62</v>
+      <c r="C5" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>62</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>11</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>66</v>
+      <c r="C6" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>62</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>11</v>
-      </c>
-      <c r="C7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
         <v>67</v>
-      </c>
-      <c r="D7" t="s">
-        <v>63</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>12</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>68</v>
+      <c r="C8" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>12</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>71</v>
+      <c r="C9" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>12</v>
-      </c>
-      <c r="C10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
         <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>69</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>13</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="14" t="s">
         <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>13</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>75</v>
+      <c r="C12" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>13</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>66</v>
+      <c r="C13" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="53.75" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
@@ -2132,97 +1511,97 @@
     <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>26</v>
@@ -2231,13 +1610,13 @@
         <v>26</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>26</v>
@@ -2246,137 +1625,137 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
         <v>100</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>101</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>102</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s">
         <v>103</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>104</v>
       </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>105</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>106</v>
       </c>
-      <c r="K4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
         <v>109</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>110</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>111</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
         <v>112</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>113</v>
       </c>
-      <c r="H5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>114</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>115</v>
       </c>
-      <c r="K5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" t="s">
         <v>118</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>119</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>120</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
         <v>121</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>122</v>
       </c>
-      <c r="H6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>123</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>124</v>
       </c>
-      <c r="K6" t="s">
-        <v>125</v>
-      </c>
-      <c r="L6" t="s">
-        <v>126</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:XFB76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:XFB75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
@@ -2387,7 +1766,7 @@
     <col min="20" max="16378" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:19">
+    <row r="1" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2395,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>50</v>
@@ -2404,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H1"/>
       <c r="I1"/>
@@ -2422,7 +1801,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:16382">
+    <row r="2" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -2430,19 +1809,19 @@
         <v>54</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2461,7 +1840,7 @@
       <c r="XFA2"/>
       <c r="XFB2"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:16382">
+    <row r="3" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
@@ -2500,692 +1879,671 @@
       <c r="XFA3"/>
       <c r="XFB3"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:16382">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:19 16379:16382" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="7" t="str">
+        <f>"Date_kaiselin_"&amp;C4&amp;"hello"</f>
+        <v>Date_kaiselin_Dormitoryhello</v>
+      </c>
+      <c r="G4" s="7" t="str">
+        <f>"Date_kaiselin_"&amp;C4</f>
+        <v>Date_kaiselin_Dormitory</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="XEY4" s="7"/>
+      <c r="XEZ4" s="7"/>
+      <c r="XFA4" s="7"/>
+      <c r="XFB4" s="7"/>
+    </row>
+    <row r="5" spans="1:19 16379:16382" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="XEY4"/>
-      <c r="XEZ4"/>
-      <c r="XFA4"/>
-      <c r="XFB4"/>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:16382">
-      <c r="A5" s="10">
-        <v>1</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="D5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f t="shared" ref="F5:F11" si="0">"Date_kaiselin_"&amp;C5&amp;"hello"</f>
+        <v>Date_kaiselin_Parkhello</v>
+      </c>
+      <c r="G5" s="7" t="str">
+        <f>"Date_kaiselin_"&amp;C5</f>
+        <v>Date_kaiselin_Park</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="XEY5" s="7"/>
+      <c r="XEZ5" s="7"/>
+      <c r="XFA5" s="7"/>
+      <c r="XFB5" s="7"/>
+    </row>
+    <row r="6" spans="1:19 16379:16382" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
         <v>11</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="10" t="str">
-        <f>"Date_kaiselin_"&amp;C5&amp;"hello"</f>
-        <v>Date_kaiselin_Dormitoryhello</v>
-      </c>
-      <c r="G5" s="10" t="str">
-        <f>"Date_kaiselin_"&amp;C5</f>
-        <v>Date_kaiselin_Dormitory</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="XEY5" s="10"/>
-      <c r="XEZ5" s="10"/>
-      <c r="XFA5" s="10"/>
-      <c r="XFB5" s="10"/>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:16382">
-      <c r="A6" s="10">
-        <v>2</v>
-      </c>
-      <c r="B6" s="10">
-        <v>11</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="10" t="str">
-        <f t="shared" ref="F6:F12" si="0">"Date_kaiselin_"&amp;C6&amp;"hello"</f>
-        <v>Date_kaiselin_Parkhello</v>
-      </c>
-      <c r="G6" s="10" t="str">
-        <f>"Date_kaiselin_"&amp;C6</f>
-        <v>Date_kaiselin_Park</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="XEY6" s="10"/>
-      <c r="XEZ6" s="10"/>
-      <c r="XFA6" s="10"/>
-      <c r="XFB6" s="10"/>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:19">
-      <c r="A7" s="10">
-        <v>3</v>
-      </c>
-      <c r="B7" s="10">
-        <v>11</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="10" t="str">
+      <c r="F6" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Date_kaiselin_JoyCityhello</v>
       </c>
-      <c r="G7" s="10" t="str">
-        <f t="shared" ref="G7:G12" si="1">"Date_kaiselin_"&amp;C7</f>
+      <c r="G6" s="7" t="str">
+        <f t="shared" ref="G6:G11" si="1">"Date_kaiselin_"&amp;C6</f>
         <v>Date_kaiselin_JoyCity</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:19">
-      <c r="A8" s="10">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+    </row>
+    <row r="7" spans="1:19 16379:16382" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B7" s="7">
         <v>11</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="10" t="str">
+      <c r="C7" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Date_kaiselin_AmusementParkhello</v>
       </c>
-      <c r="G8" s="10" t="str">
+      <c r="G7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Date_kaiselin_AmusementPark</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="10">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+    </row>
+    <row r="8" spans="1:19 16379:16382" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B8" s="7">
         <v>11</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="10" t="str">
+      <c r="D8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Date_kaiselin_Libraryhello</v>
       </c>
-      <c r="G9" s="10" t="str">
+      <c r="G8" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Date_kaiselin_Library</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="10">
+    <row r="9" spans="1:19 16379:16382" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B9" s="7">
         <v>11</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C9" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="10" t="str">
+      <c r="D9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Date_kaiselin_Cinemahello</v>
       </c>
-      <c r="G10" s="10" t="str">
+      <c r="G9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Date_kaiselin_Cinema</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="10">
+    <row r="10" spans="1:19 16379:16382" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B10" s="7">
         <v>11</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="10" t="str">
+      <c r="C10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Date_kaiselin_Cafehello</v>
       </c>
-      <c r="G11" s="10" t="str">
+      <c r="G10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Date_kaiselin_Cafe</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="10">
+    <row r="11" spans="1:19 16379:16382" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B11" s="7">
         <v>11</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="10" t="str">
+      <c r="C11" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Date_kaiselin_Ktvhello</v>
       </c>
-      <c r="G12" s="10" t="str">
+      <c r="G11" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Date_kaiselin_Ktv</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="10">
+    <row r="12" spans="1:19 16379:16382" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
         <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>12</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="7" t="str">
+        <f t="shared" ref="F12:F19" si="2">"Date_niefei_"&amp;C12&amp;"hello"</f>
+        <v>Date_niefei_Dormitoryhello</v>
+      </c>
+      <c r="G12" s="7" t="str">
+        <f t="shared" ref="G12:G19" si="3">"Date_niefei_"&amp;C12</f>
+        <v>Date_niefei_Dormitory</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19 16379:16382" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
+        <v>10</v>
       </c>
       <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>134</v>
+      <c r="C13" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="10" t="str">
-        <f t="shared" ref="F13:F20" si="2">"Date_niefei_"&amp;C13&amp;"hello"</f>
-        <v>Date_niefei_Dormitoryhello</v>
-      </c>
-      <c r="G13" s="10" t="str">
-        <f t="shared" ref="G13:G20" si="3">"Date_niefei_"&amp;C13</f>
-        <v>Date_niefei_Dormitory</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="10">
-        <v>10</v>
+        <v>133</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Date_niefei_Parkhello</v>
+      </c>
+      <c r="G13" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>Date_niefei_Park</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19 16379:16382" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
+        <v>11</v>
       </c>
       <c r="B14" s="2">
         <v>12</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="10" t="str">
+      <c r="F14" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Date_niefei_Parkhello</v>
-      </c>
-      <c r="G14" s="10" t="str">
+        <v>Date_niefei_JoyCityhello</v>
+      </c>
+      <c r="G14" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>Date_niefei_Park</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="10">
-        <v>11</v>
+        <v>Date_niefei_JoyCity</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19 16379:16382" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
+        <v>12</v>
       </c>
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>75</v>
+      <c r="C15" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="10" t="str">
+        <v>133</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Date_niefei_JoyCityhello</v>
-      </c>
-      <c r="G15" s="10" t="str">
+        <v>Date_niefei_AmusementParkhello</v>
+      </c>
+      <c r="G15" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>Date_niefei_JoyCity</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="10">
-        <v>12</v>
+        <v>Date_niefei_AmusementPark</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19 16379:16382" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
+        <v>13</v>
       </c>
       <c r="B16" s="2">
         <v>12</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>136</v>
+      <c r="C16" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="10" t="str">
+        <v>133</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Date_niefei_AmusementParkhello</v>
-      </c>
-      <c r="G16" s="10" t="str">
+        <v>Date_niefei_Libraryhello</v>
+      </c>
+      <c r="G16" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>Date_niefei_AmusementPark</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="10">
-        <v>13</v>
+        <v>Date_niefei_Library</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19 16379:16382" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
+        <v>14</v>
       </c>
       <c r="B17" s="2">
         <v>12</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>66</v>
+      <c r="C17" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="10" t="str">
+        <v>133</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Date_niefei_Libraryhello</v>
-      </c>
-      <c r="G17" s="10" t="str">
+        <v>Date_niefei_Cinemahello</v>
+      </c>
+      <c r="G17" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>Date_niefei_Library</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="10">
-        <v>14</v>
+        <v>Date_niefei_Cinema</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19 16379:16382" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
+        <v>15</v>
       </c>
       <c r="B18" s="2">
         <v>12</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>137</v>
+      <c r="C18" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="10" t="str">
+        <v>133</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Date_niefei_Cinemahello</v>
-      </c>
-      <c r="G18" s="10" t="str">
+        <v>Date_niefei_Cafehello</v>
+      </c>
+      <c r="G18" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>Date_niefei_Cinema</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="10">
-        <v>15</v>
+        <v>Date_niefei_Cafe</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19 16379:16382" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
+        <v>16</v>
       </c>
       <c r="B19" s="2">
         <v>12</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>71</v>
+      <c r="C19" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>Date_niefei_Cafehello</v>
-      </c>
-      <c r="G19" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>Date_niefei_Cafe</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="10">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2">
-        <v>12</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="10" t="str">
+        <v>133</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="7" t="str">
         <f t="shared" si="2"/>
         <v>Date_niefei_Ktvhello</v>
       </c>
-      <c r="G20" s="10" t="str">
+      <c r="G19" s="7" t="str">
         <f t="shared" si="3"/>
         <v>Date_niefei_Ktv</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="10">
+    <row r="20" spans="1:19 16379:16382" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
         <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>13</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f t="shared" ref="F20:F27" si="4">"Date_tuling_"&amp;C20&amp;"hello"</f>
+        <v>Date_tuling_Dormitoryhello</v>
+      </c>
+      <c r="G20" s="7" t="str">
+        <f t="shared" ref="G20:G27" si="5">"Date_tuling_"&amp;C20</f>
+        <v>Date_tuling_Dormitory</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19 16379:16382" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>18</v>
       </c>
       <c r="B21" s="2">
         <v>13</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>134</v>
+      <c r="C21" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="10" t="str">
-        <f t="shared" ref="F21:F28" si="4">"Date_tuling_"&amp;C21&amp;"hello"</f>
-        <v>Date_tuling_Dormitoryhello</v>
-      </c>
-      <c r="G21" s="10" t="str">
-        <f t="shared" ref="G21:G28" si="5">"Date_tuling_"&amp;C21</f>
-        <v>Date_tuling_Dormitory</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="10">
-        <v>18</v>
+        <v>133</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>Date_tuling_Parkhello</v>
+      </c>
+      <c r="G21" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>Date_tuling_Park</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19 16379:16382" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
+        <v>19</v>
       </c>
       <c r="B22" s="2">
         <v>13</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="10" t="str">
+      <c r="F22" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>Date_tuling_Parkhello</v>
-      </c>
-      <c r="G22" s="10" t="str">
+        <v>Date_tuling_JoyCityhello</v>
+      </c>
+      <c r="G22" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>Date_tuling_Park</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="10">
-        <v>19</v>
+        <v>Date_tuling_JoyCity</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19 16379:16382" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
+        <v>20</v>
       </c>
       <c r="B23" s="2">
         <v>13</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>75</v>
+      <c r="C23" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="10" t="str">
+        <v>133</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>Date_tuling_JoyCityhello</v>
-      </c>
-      <c r="G23" s="10" t="str">
+        <v>Date_tuling_AmusementParkhello</v>
+      </c>
+      <c r="G23" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>Date_tuling_JoyCity</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="10">
-        <v>20</v>
+        <v>Date_tuling_AmusementPark</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19 16379:16382" x14ac:dyDescent="0.15">
+      <c r="A24" s="7">
+        <v>21</v>
       </c>
       <c r="B24" s="2">
         <v>13</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>136</v>
+      <c r="C24" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="10" t="str">
+        <v>133</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>Date_tuling_AmusementParkhello</v>
-      </c>
-      <c r="G24" s="10" t="str">
+        <v>Date_tuling_Libraryhello</v>
+      </c>
+      <c r="G24" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>Date_tuling_AmusementPark</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="10">
-        <v>21</v>
+        <v>Date_tuling_Library</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19 16379:16382" x14ac:dyDescent="0.15">
+      <c r="A25" s="7">
+        <v>22</v>
       </c>
       <c r="B25" s="2">
         <v>13</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>66</v>
+      <c r="C25" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="10" t="str">
+        <v>133</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>Date_tuling_Libraryhello</v>
-      </c>
-      <c r="G25" s="10" t="str">
+        <v>Date_tuling_Cinemahello</v>
+      </c>
+      <c r="G25" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>Date_tuling_Library</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="10">
-        <v>22</v>
+        <v>Date_tuling_Cinema</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19 16379:16382" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
+        <v>23</v>
       </c>
       <c r="B26" s="2">
         <v>13</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>137</v>
+      <c r="C26" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="10" t="str">
+        <v>133</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>Date_tuling_Cinemahello</v>
-      </c>
-      <c r="G26" s="10" t="str">
+        <v>Date_tuling_Cafehello</v>
+      </c>
+      <c r="G26" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>Date_tuling_Cinema</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="10">
-        <v>23</v>
+        <v>Date_tuling_Cafe</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19 16379:16382" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
+        <v>24</v>
       </c>
       <c r="B27" s="2">
         <v>13</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>71</v>
+      <c r="C27" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>Date_tuling_Cafehello</v>
-      </c>
-      <c r="G27" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>Date_tuling_Cafe</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="10">
-        <v>24</v>
-      </c>
-      <c r="B28" s="2">
-        <v>13</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="10" t="str">
+        <v>133</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="7" t="str">
         <f t="shared" si="4"/>
         <v>Date_tuling_Ktvhello</v>
       </c>
-      <c r="G28" s="10" t="str">
+      <c r="G27" s="7" t="str">
         <f t="shared" si="5"/>
         <v>Date_tuling_Ktv</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="28" spans="1:19 16379:16382" x14ac:dyDescent="0.15">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:19 16379:16382" x14ac:dyDescent="0.15">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -3193,7 +2551,7 @@
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="1:19 16379:16382" x14ac:dyDescent="0.15">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -3201,7 +2559,7 @@
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="1:19 16379:16382" x14ac:dyDescent="0.15">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -3209,15 +2567,32 @@
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:16382">
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="XEY32"/>
+      <c r="XEZ32"/>
+      <c r="XFA32"/>
+      <c r="XFB32"/>
+    </row>
+    <row r="33" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -3242,7 +2617,7 @@
       <c r="XFA33"/>
       <c r="XFB33"/>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:16382">
+    <row r="34" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -3267,7 +2642,7 @@
       <c r="XFA34"/>
       <c r="XFB34"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:16382">
+    <row r="35" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -3292,7 +2667,7 @@
       <c r="XFA35"/>
       <c r="XFB35"/>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:16382">
+    <row r="36" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -3317,7 +2692,7 @@
       <c r="XFA36"/>
       <c r="XFB36"/>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:16382">
+    <row r="37" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -3342,7 +2717,7 @@
       <c r="XFA37"/>
       <c r="XFB37"/>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:16382">
+    <row r="38" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -3367,7 +2742,7 @@
       <c r="XFA38"/>
       <c r="XFB38"/>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:16382">
+    <row r="39" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -3392,7 +2767,7 @@
       <c r="XFA39"/>
       <c r="XFB39"/>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:16382">
+    <row r="40" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -3417,7 +2792,7 @@
       <c r="XFA40"/>
       <c r="XFB40"/>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:16382">
+    <row r="41" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -3442,7 +2817,7 @@
       <c r="XFA41"/>
       <c r="XFB41"/>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:16382">
+    <row r="42" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -3467,7 +2842,7 @@
       <c r="XFA42"/>
       <c r="XFB42"/>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:16382">
+    <row r="43" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -3492,7 +2867,7 @@
       <c r="XFA43"/>
       <c r="XFB43"/>
     </row>
-    <row r="44" s="1" customFormat="1" spans="1:16382">
+    <row r="44" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -3517,7 +2892,7 @@
       <c r="XFA44"/>
       <c r="XFB44"/>
     </row>
-    <row r="45" s="1" customFormat="1" spans="1:16382">
+    <row r="45" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -3542,7 +2917,7 @@
       <c r="XFA45"/>
       <c r="XFB45"/>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:16382">
+    <row r="46" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -3567,7 +2942,7 @@
       <c r="XFA46"/>
       <c r="XFB46"/>
     </row>
-    <row r="47" s="1" customFormat="1" spans="1:16382">
+    <row r="47" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -3592,7 +2967,7 @@
       <c r="XFA47"/>
       <c r="XFB47"/>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:16382">
+    <row r="48" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -3617,7 +2992,7 @@
       <c r="XFA48"/>
       <c r="XFB48"/>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:16382">
+    <row r="49" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -3642,7 +3017,7 @@
       <c r="XFA49"/>
       <c r="XFB49"/>
     </row>
-    <row r="50" s="1" customFormat="1" spans="1:16382">
+    <row r="50" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -3667,7 +3042,7 @@
       <c r="XFA50"/>
       <c r="XFB50"/>
     </row>
-    <row r="51" s="1" customFormat="1" spans="1:16382">
+    <row r="51" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -3692,7 +3067,7 @@
       <c r="XFA51"/>
       <c r="XFB51"/>
     </row>
-    <row r="52" s="1" customFormat="1" spans="1:16382">
+    <row r="52" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -3717,7 +3092,7 @@
       <c r="XFA52"/>
       <c r="XFB52"/>
     </row>
-    <row r="53" s="1" customFormat="1" spans="1:16382">
+    <row r="53" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -3742,7 +3117,7 @@
       <c r="XFA53"/>
       <c r="XFB53"/>
     </row>
-    <row r="54" s="1" customFormat="1" spans="1:16382">
+    <row r="54" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -3767,7 +3142,7 @@
       <c r="XFA54"/>
       <c r="XFB54"/>
     </row>
-    <row r="55" s="1" customFormat="1" spans="1:16382">
+    <row r="55" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -3792,7 +3167,7 @@
       <c r="XFA55"/>
       <c r="XFB55"/>
     </row>
-    <row r="56" s="1" customFormat="1" spans="1:16382">
+    <row r="56" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -3817,7 +3192,7 @@
       <c r="XFA56"/>
       <c r="XFB56"/>
     </row>
-    <row r="57" s="1" customFormat="1" spans="1:16382">
+    <row r="57" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -3842,7 +3217,7 @@
       <c r="XFA57"/>
       <c r="XFB57"/>
     </row>
-    <row r="58" s="1" customFormat="1" spans="1:16382">
+    <row r="58" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -3867,7 +3242,7 @@
       <c r="XFA58"/>
       <c r="XFB58"/>
     </row>
-    <row r="59" s="1" customFormat="1" spans="1:16382">
+    <row r="59" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -3892,7 +3267,7 @@
       <c r="XFA59"/>
       <c r="XFB59"/>
     </row>
-    <row r="60" s="1" customFormat="1" spans="1:16382">
+    <row r="60" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -3917,7 +3292,7 @@
       <c r="XFA60"/>
       <c r="XFB60"/>
     </row>
-    <row r="61" s="1" customFormat="1" spans="1:16382">
+    <row r="61" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -3942,7 +3317,7 @@
       <c r="XFA61"/>
       <c r="XFB61"/>
     </row>
-    <row r="62" s="1" customFormat="1" spans="1:16382">
+    <row r="62" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -3967,7 +3342,7 @@
       <c r="XFA62"/>
       <c r="XFB62"/>
     </row>
-    <row r="63" s="1" customFormat="1" spans="1:16382">
+    <row r="63" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -3992,7 +3367,7 @@
       <c r="XFA63"/>
       <c r="XFB63"/>
     </row>
-    <row r="64" s="1" customFormat="1" spans="1:16382">
+    <row r="64" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -4017,7 +3392,7 @@
       <c r="XFA64"/>
       <c r="XFB64"/>
     </row>
-    <row r="65" s="1" customFormat="1" spans="1:16382">
+    <row r="65" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -4042,7 +3417,7 @@
       <c r="XFA65"/>
       <c r="XFB65"/>
     </row>
-    <row r="66" s="1" customFormat="1" spans="1:16382">
+    <row r="66" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -4067,7 +3442,7 @@
       <c r="XFA66"/>
       <c r="XFB66"/>
     </row>
-    <row r="67" s="1" customFormat="1" spans="1:16382">
+    <row r="67" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -4092,7 +3467,7 @@
       <c r="XFA67"/>
       <c r="XFB67"/>
     </row>
-    <row r="68" s="1" customFormat="1" spans="1:16382">
+    <row r="68" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -4117,7 +3492,7 @@
       <c r="XFA68"/>
       <c r="XFB68"/>
     </row>
-    <row r="69" s="1" customFormat="1" spans="1:16382">
+    <row r="69" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -4142,7 +3517,7 @@
       <c r="XFA69"/>
       <c r="XFB69"/>
     </row>
-    <row r="70" s="1" customFormat="1" spans="1:16382">
+    <row r="70" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -4167,7 +3542,7 @@
       <c r="XFA70"/>
       <c r="XFB70"/>
     </row>
-    <row r="71" s="1" customFormat="1" spans="1:16382">
+    <row r="71" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -4192,7 +3567,7 @@
       <c r="XFA71"/>
       <c r="XFB71"/>
     </row>
-    <row r="72" s="1" customFormat="1" spans="1:16382">
+    <row r="72" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -4217,7 +3592,7 @@
       <c r="XFA72"/>
       <c r="XFB72"/>
     </row>
-    <row r="73" s="1" customFormat="1" spans="1:16382">
+    <row r="73" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -4242,7 +3617,7 @@
       <c r="XFA73"/>
       <c r="XFB73"/>
     </row>
-    <row r="74" s="1" customFormat="1" spans="1:16382">
+    <row r="74" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -4267,7 +3642,7 @@
       <c r="XFA74"/>
       <c r="XFB74"/>
     </row>
-    <row r="75" s="1" customFormat="1" spans="1:16382">
+    <row r="75" spans="1:19 16379:16382" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -4292,37 +3667,9 @@
       <c r="XFA75"/>
       <c r="XFB75"/>
     </row>
-    <row r="76" s="1" customFormat="1" spans="1:16382">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
-      <c r="O76"/>
-      <c r="P76"/>
-      <c r="Q76"/>
-      <c r="R76"/>
-      <c r="S76"/>
-      <c r="XEY76"/>
-      <c r="XEZ76"/>
-      <c r="XFA76"/>
-      <c r="XFB76"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:I75">
-    <sortCondition ref="A4"/>
-  </sortState>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/mobi_client/mobi_client/mobi_config/excel/012_约会表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/012_约会表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD6D14F-C67F-4E1E-AAA9-F51207A364EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46896779-B7B7-4669-B794-267F09A173F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27240" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25290" yWindow="1455" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DatingGift|角色礼物表" sheetId="4" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/excel/012_约会表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/012_约会表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46896779-B7B7-4669-B794-267F09A173F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E88F911-6153-4870-A9D7-32A9DF2DEF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25290" yWindow="1455" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DatingGift|角色礼物表" sheetId="4" r:id="rId1"/>
@@ -934,8 +934,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1192,7 +1192,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1492,8 +1492,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1751,8 +1751,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:XFB75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3668,6 +3668,9 @@
       <c r="XFB75"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I75">
+    <sortCondition ref="A4"/>
+  </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
